--- a/MEDIA/_1102_001_會計科目餘額明細.xlsx
+++ b/MEDIA/_1102_001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_1102_001_2020-10-31~2020-10-31)</t>
+          <t>森邦(股)會計科目餘額明細(_1102_001_2020-10-01~2020-10-31)</t>
         </is>
       </c>
     </row>
@@ -419,10 +419,6201 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1325888</v>
+        <v>5020483</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20201001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>三重頂崁	                                   </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>16520</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5037003</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>109534</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20201001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9/1-10/1玉山森邦利息-200萬-445019160 </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>617</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5037620</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>109579</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20201001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9/1-10/1玉山森邦利息-100萬-445019153 </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>308</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5037928</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>109579</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>25691</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5063619</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>楠梓德賢                                    </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>20153</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5083772</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1000760</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20201004</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>堤諾桃園中山                                  </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>43066</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5126838</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>杭州店匯入-沖9/23#109182-暫付杭州店      </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3045</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5129883</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>109651</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>杭州店匯入-沖9/23#109182-暫付杭州店      </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5152883</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>109651</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0905-1005玉山定存到期100萬利息445777785</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>308</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5153191</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>110466</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0905-1005玉山定存到期200萬利息444777792</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>617</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5153808</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>110466</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>暫收-蘆竹鴻佰科技-林欣杰-暫收款+保證金         </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>110000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5263808</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>109656</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>玉山森邦轉定存-100萬-6M               </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4263808</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>109418</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>玉山森邦轉定存-200萬-6M               </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-2000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2263808</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>109418</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>竹北大漾                                    </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>73030</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2336838</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1000768</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>元智大學                                    </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20007</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2356845</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1000358</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>內壢後站                                    </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>20884</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2377729</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1000757</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>桃園大有                                    </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>22101</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2399830</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1000829</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北市龍江                                    </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>34090</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2433920</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1000602</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>台南勝利                                    </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>23654</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2457574</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1000654</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>台中昌平                                    </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>15080</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2472654</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1000041</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>彰化彰南                                    </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2495654</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1000046</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平中山                                    </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>24910</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2520564</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1000135</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>花蓮慶豐                                    </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>10825</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2531389</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1000521</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>台中興安                                    </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2545389</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1000122</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20201005</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>林園仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>44479</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2589868</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>109609</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1000445</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20201006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>岡山壽華                                    </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>17079</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2606947</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1000234</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20201006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>楊梅楊新                                    </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>20780</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2627727</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20201006</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>土城中央                                    </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2637727</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1000397</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20201006</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>土城員林                                    </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>71425</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2709152</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1000096</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20201006</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>梧棲文昌	                                   </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>19762</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2728914</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1000915</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20201006</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>台中北平                                    </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>32651</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2761565</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1000019</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20201006</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>土城中央                                    </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2764565</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1000397</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>14522</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2779087</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新竹巨城	                                   </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>141194</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2920281</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1000842</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>北市松德                                    </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>25086</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2945367</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1000675</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>土城中央                                    </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2952367</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1000397</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>北市昌吉                                    </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>20318</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2972685</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1000283</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9/7-10/7玉山定存利息200萬-448703997  </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2974410</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>110467</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201007</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9/7-10/7玉山定存利息100萬-448704006  </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>863</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2975273</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>110467</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>存9/23-10/7振興卷                 </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3038173</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>109830</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>繳8月份補充保費及9月代扣稅款               </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-406242</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2631931</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>109717</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>商邦杭南店匯入-10/07暫付商邦杭南店費用        </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>818</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2632749</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>110154</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>三重頂崁	                                   </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>10759</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2643508</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>羅東羅商                                    </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2660508</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1000523</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新莊新豐                                    </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>29860</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2690368</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1000142</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新莊新豐                                    </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>29260</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2719628</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1000142</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201009</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>蘆竹南竹                                    </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2749628</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>109843</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1000549</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201009</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>梧棲文昌	                                   </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1649</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2751277</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1000915</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201009</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>台南勝利                                    </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>19193</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2770470</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1000654</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201010</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>土城中央                                    </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2773470</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1000397</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201011</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>堤諾桃園中山                                  </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>41205</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2814675</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201011</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>太平中山                                    </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>27740</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2842415</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1000135</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201011</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>楠梓德賢                                    </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>14396</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2856811</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1000760</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201011</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>16360</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2873171</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201012</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>竹北大漾                                    </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>71841</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2945012</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>109921</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1000768</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201012</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>彰化彰南                                    </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2968012</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>109888</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1000046</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201012</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>桃園大有                                    </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>38765</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3006777</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>109888</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1000829</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201012</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>台中興安                                    </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3021777</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1000122</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201012</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>林園仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>41817</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3063594</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>109860</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1000445</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201012</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>台中昌平                                    </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>12620</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3076214</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>109888</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1000041</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>原愷商行                                    </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2790</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3079004</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>109921</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>9000539</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>台中北平                                    </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>30268</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3109272</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>109921</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1000019</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>土城員林                                    </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>65034</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3174306</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1000096</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>楊梅楊新                                    </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>19220</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3193526</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>北市昌吉                                    </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>15790</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3209316</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1000283</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9/14-10/14玉山200萬0.62%445763981</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>617</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3209933</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>110468</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9/14-10/14玉山100萬0.62%445764001</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>308</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3210241</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>110468</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>土城中央                                    </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3232241</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1000397</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>堤諾桃園中山                                  </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>38541</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3270782</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>4000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>18455</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3289237</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>109986</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新竹巨城	                                   </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>161298</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3450535</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>110062</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1000842</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20201015</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>10908高雄展NO.33-黃曉菁 花蓮中正 暫收款84萬 </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>840000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4290535</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>110107</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20201015</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>三重頂崁	                                   </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>11231</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4301766</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>110083</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20201015</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>北市龍江                                    </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>36011</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4337777</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>110083</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1000602</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>調整會科-正確：銀行存款，玉山乙存             </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4352777</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>110205</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>梧棲文昌	                                   </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5551</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4358328</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1000915</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20201016</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>台南勝利                                    </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>27122</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4385450</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1000654</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20201018</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>楠梓德賢                                    </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>13986</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4399436</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1000760</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20201018</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>17796</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4417232</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>台中昌平                                    </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>17110</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4434342</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1000041</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>台中興安                                    </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>13000</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4447342</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1000122</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>北市松德                                    </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>46948</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4494290</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1000675</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>彰化彰南                                    </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>21000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4515290</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1000046</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>太平中山                                    </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>21070</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4536360</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1000135</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>花蓮慶豐                                    </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>19043</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4555403</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>110193</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1000521</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>內壢後站                                    </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>18825</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4574228</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1000757</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>元智大學                                    </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>11869</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4586097</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1000358</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>元智大學                                    </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>20477</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4606574</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1000358</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>元智大學                                    </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>21269</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4627843</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1000358</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>土城員林                                    </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>68540</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4696383</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1000096</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>竹北大漾                                    </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>62249</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4758632</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1000768</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>桃園大有                                    </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>33483</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4792115</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1000829</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>內壢後站                                    </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>9096</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4801211</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1000757</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>09/20-10/20玉山定存100萬-444837536 </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>283</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4801494</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>110469</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201020</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>楊梅楊新                                    </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>19120</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4820614</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>110342</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201020</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>梧棲文昌	                                   </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4824314</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1000915</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201020</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>岡山壽華                                    </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>11930</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4836244</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>110278</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1000234</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201020</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>沅沐有限公司                                  </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>34122</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4870366</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>110388</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>5999917</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20201020</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>09/20-10/20玉山定存200萬-444837547 </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>567</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4870933</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>110469</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20201021</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>新竹巨城	                                   </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>128064</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4998997</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>110388</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1000842</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20201021</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>堤諾桃園中山                                  </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>51628</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5050625</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>110352</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>4000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20201021</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>北市龍江                                    </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>32623</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5083248</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>110342</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1000602</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20201021</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>林園仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>98093</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5181341</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>110352</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1000445</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20201021</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>北市昌吉                                    </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>12375</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5193716</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>110352</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1000283</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20201021</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>蘆竹南竹                                    </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5218716</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>110352</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1000549</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>三重頂崁	                                   </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>9178</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5227894</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>110388</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>羅東羅商                                    </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5244894</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>110388</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1000523</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>好樂迪新竹店                                  </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>870</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5245764</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>110388</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>9001133</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>台南勝利                                    </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>22569</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5268333</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>110441</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1000654</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20201022</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>捐贈-10月份世界展望會-資助國內兒童5名         </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5258333</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>110438</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>15680</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5274013</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>110490</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>梧棲文昌	                                   </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>5408</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5279421</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>110490</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1000915</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20201024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>9/24-10/24玉山森邦定存100萬-445019121</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>617</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5280038</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>110665</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20201024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9/24-10/24玉山森邦定存200萬-445019114</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>308</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5280346</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>110665</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20201025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>15779</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5296125</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20201025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>玉山森邦定存-100萬利息-444838136       </t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>283</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5296408</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>110666</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20201025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>楠梓德賢                                    </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>13943</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5310351</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1000760</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20201025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>台中興安                                    </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5324351</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1000122</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>花蓮慶豐                                    </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>9220</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5333571</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1000521</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>彰化彰南                                    </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5351571</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1000046</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>台中北平                                    </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>33646</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5385217</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1000019</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>楊梅總店                                    </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>280379</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5665596</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>太平中山                                    </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>25260</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5690856</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1000135</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>三重頂崁	                                   </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>8179</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5699035</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>北市龍江                                    </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>36625</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5735660</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>110530</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1000602</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>土城員林                                    </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>56948</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5792608</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1000096</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>竹北大漾                                    </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>67649</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5860257</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1000768</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>桃園大有                                    </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>27453</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5887710</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1000829</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>台中北平                                    </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>33172</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5920882</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1000019</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>北市昌吉                                    </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>14843</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5935725</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1000283</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>岡山壽華                                    </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>12073</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5947798</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1000234</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>台中昌平                                    </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>9920</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5957718</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1000041</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>楊梅楊新                                    </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>18900</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5976618</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>110662</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>梧棲文昌	                                   </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>3782</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5980400</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>1000915</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20201027</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>內壢後站                                    </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>16583</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5996983</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>110594</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1000757</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>台中永興	                                   </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>14988</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>6011971</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>土城中央                                    </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>15711</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>6027682</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1000397</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>羅東羅商                                    </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6057682</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1000523</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>新竹巨城	                                   </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>135062</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6192744</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1000842</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>堤諾桃園中山                                  </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>44751</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>6237495</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>110663</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>4000005</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0929-1029玉山定存到期200萬利息444837102</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>567</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6238062</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>111516</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0929-1029玉山定存到期100萬利息444837116</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>283</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6238345</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>111516</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>蘆竹南竹                                    </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>6268345</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1000549</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>20201029</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>三重頂崁	                                   </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>6396</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>6274741</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>110715</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>1000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>梧棲文昌	                                   </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>7162</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6281903</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1000915</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>北市松德                                    </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>34349</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6316252</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>110826</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1000675</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>台南勝利                                    </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>25648</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>6341900</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>110826</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1000654</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>林園仁愛                                    </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>44835</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>6386735</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1000445</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>玉山轉凱基森邦-500萬                  </t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-5000000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1386735</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>110641</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>商邦杭州店匯入-沖10/23#110479-暫付商邦杭州店 </t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>17631</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1404366</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>110858</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1102  .001     </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>玉山森邦-義強興25萬定存單利息收入-448007886  </t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>169</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1404535</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>111517</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
